--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/TIMES-PL-PSE/Shared Documents/General/MODELE/2024/TIMES-PL_Elektroenergetyka_2024/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="11_FDC1D35BD73BC28EDA6F128D3CE7656AFCD643D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C908586-B100-4552-8285-7325A5BF7BAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4396C-4167-4722-BB56-72E1E3664D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22644" windowHeight="15636" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Region</t>
   </si>
@@ -147,13 +147,16 @@
   </si>
   <si>
     <t>Popyt na energię elektryczną - scenariusz bazowy</t>
+  </si>
+  <si>
+    <t>Wersja BAZOWA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +246,15 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -479,7 +491,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +610,7 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperłącze 2 4 2" xfId="3" xr:uid="{B26F89E5-914E-409B-9883-8B289A41C657}"/>
@@ -2070,9 +2083,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O12"/>
+  <dimension ref="B2:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -2082,7 +2097,7 @@
     <col min="7" max="8" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18">
+    <row r="2" spans="2:19" ht="18">
       <c r="B2" s="47" t="s">
         <v>28</v>
       </c>
@@ -2091,7 +2106,12 @@
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="4" spans="2:15" ht="18.75" customHeight="1">
+    <row r="3" spans="2:19">
+      <c r="R3" s="60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2099,8 +2119,11 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2119,8 +2142,14 @@
       <c r="I5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1">
+      <c r="R5">
+        <v>2025</v>
+      </c>
+      <c r="S5">
+        <v>600.84864000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="15" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2153,8 +2182,14 @@
       <c r="O6">
         <v>2050</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="15.6" customHeight="1">
+      <c r="R6">
+        <v>2030</v>
+      </c>
+      <c r="S6">
+        <v>664.70523100000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="15.6" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2192,8 +2227,14 @@
       <c r="O7">
         <v>241.71573599999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="15.6" customHeight="1" thickBot="1">
+      <c r="R7">
+        <v>2035</v>
+      </c>
+      <c r="S7">
+        <v>716.062547</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="15.6" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -2237,8 +2278,14 @@
         <f t="shared" si="0"/>
         <v>870.17665</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="15.6" customHeight="1">
+      <c r="R8">
+        <v>2040</v>
+      </c>
+      <c r="S8">
+        <v>772.98984399999995</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" ht="15.6" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2254,8 +2301,14 @@
       <c r="F9" s="8">
         <v>716.062547</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.6" customHeight="1">
+      <c r="R9">
+        <v>2045</v>
+      </c>
+      <c r="S9">
+        <v>820.30770399999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" ht="15.6" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2271,8 +2324,14 @@
       <c r="F10" s="7">
         <v>772.98984399999995</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="15.6" customHeight="1">
+      <c r="R10">
+        <v>2050</v>
+      </c>
+      <c r="S10">
+        <v>870.17665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="15.6" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -2289,7 +2348,7 @@
         <v>820.30770399999994</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="15.6" customHeight="1" thickBot="1">
+    <row r="12" spans="2:19" ht="15.6" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2312,15 +2371,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -2563,6 +2613,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2575,14 +2634,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120082E7-45F7-4349-B2C7-2B9C4F74CE4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2601,6 +2652,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A4396C-4167-4722-BB56-72E1E3664D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF2908-16F3-4524-8706-A798ACEC4399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,30 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Region</t>
   </si>
@@ -150,13 +128,16 @@
   </si>
   <si>
     <t>Wersja BAZOWA</t>
+  </si>
+  <si>
+    <t>MOJE Wzrost POPYTU (o 15% w latach 2030-2050)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +240,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="8">
@@ -484,14 +472,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,6 +564,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -610,11 +601,13 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="3" xr:uid="{B26F89E5-914E-409B-9883-8B289A41C657}"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{D5067DD6-D95D-4FF3-8EE1-0273798B1C13}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{83ABC1DA-7FC1-48DF-B1BE-894A2E65FF2C}"/>
+    <cellStyle name="Normal 73" xfId="5" xr:uid="{A7C24703-8C2F-4226-8F1A-3E6A4EEA84FE}"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10 10" xfId="4" xr:uid="{05C0121C-ECA2-4107-8120-5EC909D418A5}"/>
     <cellStyle name="Normalny 43 2" xfId="1" xr:uid="{CAB19D8F-14FF-4192-B765-291FFCBC7306}"/>
@@ -1182,9 +1175,9 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22"/>
       <c r="L6" s="13"/>
@@ -1205,9 +1198,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22"/>
       <c r="L8" s="13"/>
@@ -1256,15 +1249,15 @@
       <c r="A14" s="13"/>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="51" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="J14" s="24"/>
       <c r="K14" s="22"/>
       <c r="L14" s="13"/>
@@ -1275,9 +1268,9 @@
       <c r="C15" s="23"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="J15" s="24"/>
       <c r="K15" s="22"/>
       <c r="L15" s="13"/>
@@ -1302,16 +1295,16 @@
       <c r="A18" s="13"/>
       <c r="B18" s="18"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="13"/>
@@ -1322,10 +1315,10 @@
       <c r="C19" s="23"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="13"/>
@@ -1336,10 +1329,10 @@
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="13"/>
@@ -1359,10 +1352,10 @@
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="48"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="30">
         <v>45078</v>
       </c>
@@ -1440,10 +1433,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="48"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="14" t="s">
         <v>16</v>
       </c>
@@ -1482,10 +1475,10 @@
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="48"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="14" t="s">
         <v>16</v>
       </c>
@@ -1656,11 +1649,11 @@
       <c r="A4" s="13"/>
       <c r="B4" s="18"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
       <c r="I4" s="13"/>
@@ -1680,11 +1673,11 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="24"/>
       <c r="H6" s="22"/>
       <c r="I6" s="13"/>
@@ -1706,11 +1699,11 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
       <c r="I8" s="13"/>
@@ -2083,10 +2076,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:S12"/>
+  <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2097,7 +2090,7 @@
     <col min="7" max="8" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="18">
+    <row r="2" spans="2:22" ht="18">
       <c r="B2" s="47" t="s">
         <v>28</v>
       </c>
@@ -2106,12 +2099,15 @@
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
     </row>
-    <row r="3" spans="2:19">
-      <c r="R3" s="60" t="s">
+    <row r="3" spans="2:22">
+      <c r="R3" s="48" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:19" ht="18.75" customHeight="1">
+      <c r="U3" s="61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18.75" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2122,8 +2118,11 @@
       <c r="S4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2148,8 +2147,14 @@
       <c r="S5">
         <v>600.84864000000005</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" ht="15" thickBot="1">
+      <c r="U5">
+        <v>2025</v>
+      </c>
+      <c r="V5">
+        <v>620.56799999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="15" thickBot="1">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2188,8 +2193,14 @@
       <c r="S6">
         <v>664.70523100000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" ht="15.6" customHeight="1">
+      <c r="U6">
+        <v>2030</v>
+      </c>
+      <c r="V6">
+        <v>764.41101588000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="15.6" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
@@ -2202,9 +2213,8 @@
       <c r="E7" s="6">
         <v>2025</v>
       </c>
-      <c r="F7" s="5" cm="1">
-        <f t="array" ref="F7:F12">TRANSPOSE(J8:O8)</f>
-        <v>600.84864000000005</v>
+      <c r="F7" s="5">
+        <v>620.56799999999998</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2233,8 +2243,14 @@
       <c r="S7">
         <v>716.062547</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" ht="15.6" customHeight="1" thickBot="1">
+      <c r="U7">
+        <v>2035</v>
+      </c>
+      <c r="V7">
+        <v>823.4719288199999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>664.70523100000003</v>
+        <v>764.41099999999994</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2284,8 +2300,14 @@
       <c r="S8">
         <v>772.98984399999995</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" ht="15.6" customHeight="1">
+      <c r="U8">
+        <v>2040</v>
+      </c>
+      <c r="V8">
+        <v>888.93832013999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="15.6" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>716.062547</v>
+        <v>823.47190000000001</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2307,8 +2329,14 @@
       <c r="S9">
         <v>820.30770399999994</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" ht="15.6" customHeight="1">
+      <c r="U9">
+        <v>2045</v>
+      </c>
+      <c r="V9">
+        <v>943.35385913999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="15.6" customHeight="1">
       <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2350,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>772.98984399999995</v>
+        <v>888.93830000000003</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2330,8 +2358,14 @@
       <c r="S10">
         <v>870.17665</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" ht="15.6" customHeight="1">
+      <c r="U10">
+        <v>2050</v>
+      </c>
+      <c r="V10">
+        <v>1000.70314704</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="15.6" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -2345,10 +2379,10 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>820.30770399999994</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="15.6" customHeight="1" thickBot="1">
+        <v>943.35389999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
       <c r="B12" s="9" t="s">
         <v>2</v>
       </c>
@@ -2362,7 +2396,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>870.17665</v>
+        <v>1000.703</v>
       </c>
     </row>
   </sheetData>
@@ -2371,6 +2405,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A7D98A4600D5044F9F854C890D6CC50E" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8a3173f591826d139beec1ab1c321b3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8acd6055-54fc-4ce7-b3df-0a09834a0329" xmlns:ns3="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6c64c9e569b4593220799f669190593" ns2:_="" ns3:_="">
     <xsd:import namespace="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
@@ -2613,15 +2656,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2634,6 +2668,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{120082E7-45F7-4349-B2C7-2B9C4F74CE4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2652,14 +2694,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>

--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFF2908-16F3-4524-8706-A798ACEC4399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437F590-4175-4E4F-88C1-75FF3661B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,6 +565,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -601,7 +602,6 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="3" xr:uid="{B26F89E5-914E-409B-9883-8B289A41C657}"/>
@@ -1175,9 +1175,9 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22"/>
       <c r="L6" s="13"/>
@@ -1198,9 +1198,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22"/>
       <c r="L8" s="13"/>
@@ -1249,15 +1249,15 @@
       <c r="A14" s="13"/>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="50"/>
+      <c r="F14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
       <c r="J14" s="24"/>
       <c r="K14" s="22"/>
       <c r="L14" s="13"/>
@@ -1268,9 +1268,9 @@
       <c r="C15" s="23"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
       <c r="J15" s="24"/>
       <c r="K15" s="22"/>
       <c r="L15" s="13"/>
@@ -1295,16 +1295,16 @@
       <c r="A18" s="13"/>
       <c r="B18" s="18"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="50"/>
+      <c r="F18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="13"/>
@@ -1315,10 +1315,10 @@
       <c r="C19" s="23"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="13"/>
@@ -1329,10 +1329,10 @@
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
       <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="13"/>
@@ -1352,10 +1352,10 @@
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="50"/>
       <c r="F22" s="30">
         <v>45078</v>
       </c>
@@ -1433,10 +1433,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="14" t="s">
         <v>16</v>
       </c>
@@ -1475,10 +1475,10 @@
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="14" t="s">
         <v>16</v>
       </c>
@@ -1649,11 +1649,11 @@
       <c r="A4" s="13"/>
       <c r="B4" s="18"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
       <c r="I4" s="13"/>
@@ -1673,11 +1673,11 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="24"/>
       <c r="H6" s="22"/>
       <c r="I6" s="13"/>
@@ -1699,11 +1699,11 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
       <c r="I8" s="13"/>
@@ -2079,7 +2079,7 @@
   <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2103,7 +2103,7 @@
       <c r="R3" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="49" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>2025</v>
       </c>
       <c r="F7" s="5">
-        <v>620.56799999999998</v>
+        <v>600.84864000000005</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2264,7 +2264,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>764.41099999999994</v>
+        <v>664.70523100000003</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2321,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>823.47190000000001</v>
+        <v>716.062547</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2350,7 +2350,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>888.93830000000003</v>
+        <v>772.98984399999995</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2379,7 +2379,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>943.35389999999995</v>
+        <v>820.30770399999994</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2396,7 +2396,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>1000.703</v>
+        <v>870.17665</v>
       </c>
     </row>
   </sheetData>
@@ -2405,12 +2405,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2657,20 +2659,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2695,12 +2698,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A437F590-4175-4E4F-88C1-75FF3661B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F37185-3B78-4F1B-8C28-A777998E9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2079,7 +2079,7 @@
   <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2214,7 +2214,7 @@
         <v>2025</v>
       </c>
       <c r="F7" s="5">
-        <v>600.84864000000005</v>
+        <v>620.56799999999998</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2264,7 +2264,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>664.70523100000003</v>
+        <v>764.41101588000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2321,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>716.062547</v>
+        <v>823.47192882000002</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2333,7 +2333,7 @@
         <v>2045</v>
       </c>
       <c r="V9">
-        <v>943.35385913999994</v>
+        <v>943.35385914000005</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15.6" customHeight="1">
@@ -2350,7 +2350,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>772.98984399999995</v>
+        <v>888.93832013999997</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2379,7 +2379,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>820.30770399999994</v>
+        <v>943.35385914000005</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2396,7 +2396,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>870.17665</v>
+        <v>1000.70314704</v>
       </c>
     </row>
   </sheetData>
@@ -2405,14 +2405,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,21 +2657,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2698,9 +2695,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F37185-3B78-4F1B-8C28-A777998E9558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC29DF-E891-4DE8-B95A-BE9EBFF5708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2079,7 +2079,7 @@
   <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2213,8 +2213,8 @@
       <c r="E7" s="6">
         <v>2025</v>
       </c>
-      <c r="F7" s="5">
-        <v>620.56799999999998</v>
+      <c r="F7">
+        <v>600.84864000000005</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2264,7 +2264,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>764.41101588000004</v>
+        <v>664.70523100000003</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2321,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>823.47192882000002</v>
+        <v>716.062547</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2350,7 +2350,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>888.93832013999997</v>
+        <v>772.98984399999995</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2379,7 +2379,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>943.35385914000005</v>
+        <v>820.30770399999994</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2396,7 +2396,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>1000.70314704</v>
+        <v>870.17665</v>
       </c>
     </row>
   </sheetData>
@@ -2405,12 +2405,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2657,20 +2659,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2695,12 +2698,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC29DF-E891-4DE8-B95A-BE9EBFF5708D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26899488-FD34-4653-923A-1639257CFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2079,7 +2079,7 @@
   <dimension ref="B2:V12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2214,7 +2214,7 @@
         <v>2025</v>
       </c>
       <c r="F7">
-        <v>600.84864000000005</v>
+        <v>620.56799999999998</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2247,7 +2247,7 @@
         <v>2035</v>
       </c>
       <c r="V7">
-        <v>823.4719288199999</v>
+        <v>823.47192882000002</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2264,7 +2264,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>664.70523100000003</v>
+        <v>764.41101588000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2321,7 +2321,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>716.062547</v>
+        <v>823.47192882000002</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2350,7 +2350,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>772.98984399999995</v>
+        <v>888.93832013999997</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2379,7 +2379,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>820.30770399999994</v>
+        <v>943.35385914000005</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2396,7 +2396,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>870.17665</v>
+        <v>1000.70314704</v>
       </c>
     </row>
   </sheetData>
@@ -2405,14 +2405,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2659,21 +2657,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2698,9 +2695,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26899488-FD34-4653-923A-1639257CFE8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD14D1-FE63-4DEB-AEA5-A0B85277314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Region</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>MOJE Wzrost POPYTU (o 15% w latach 2030-2050)</t>
+  </si>
+  <si>
+    <t>NOWY BAZOWY</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>NOWY WZROST POPYTU O 15%</t>
   </si>
 </sst>
 </file>
@@ -143,6 +152,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,13 +257,6 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
   </fonts>
   <fills count="8">
@@ -474,134 +484,135 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="3" xr:uid="{B26F89E5-914E-409B-9883-8B289A41C657}"/>
@@ -1175,9 +1186,9 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22"/>
       <c r="L6" s="13"/>
@@ -1198,9 +1209,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22"/>
       <c r="L8" s="13"/>
@@ -1249,15 +1260,15 @@
       <c r="A14" s="13"/>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="J14" s="24"/>
       <c r="K14" s="22"/>
       <c r="L14" s="13"/>
@@ -1268,9 +1279,9 @@
       <c r="C15" s="23"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
       <c r="J15" s="24"/>
       <c r="K15" s="22"/>
       <c r="L15" s="13"/>
@@ -1295,16 +1306,16 @@
       <c r="A18" s="13"/>
       <c r="B18" s="18"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="54" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
       <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="13"/>
@@ -1315,10 +1326,10 @@
       <c r="C19" s="23"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="13"/>
@@ -1329,10 +1340,10 @@
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
       <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="13"/>
@@ -1352,10 +1363,10 @@
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="50"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="30">
         <v>45078</v>
       </c>
@@ -1433,10 +1444,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="50"/>
+      <c r="E28" s="49"/>
       <c r="F28" s="14" t="s">
         <v>16</v>
       </c>
@@ -1475,10 +1486,10 @@
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="50"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="14" t="s">
         <v>16</v>
       </c>
@@ -1649,11 +1660,11 @@
       <c r="A4" s="13"/>
       <c r="B4" s="18"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
       <c r="I4" s="13"/>
@@ -1673,11 +1684,11 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="24"/>
       <c r="H6" s="22"/>
       <c r="I6" s="13"/>
@@ -1699,11 +1710,11 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
       <c r="I8" s="13"/>
@@ -2076,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V12"/>
+  <dimension ref="B2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2100,11 +2111,11 @@
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="49" t="s">
-        <v>30</v>
+      <c r="U3" s="48" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="18.75" customHeight="1">
@@ -2151,7 +2162,7 @@
         <v>2025</v>
       </c>
       <c r="V5">
-        <v>620.56799999999998</v>
+        <v>617.36522400000001</v>
       </c>
     </row>
     <row r="6" spans="2:22" ht="15" thickBot="1">
@@ -2197,7 +2208,7 @@
         <v>2030</v>
       </c>
       <c r="V6">
-        <v>764.41101588000004</v>
+        <v>724.17600000000004</v>
       </c>
     </row>
     <row r="7" spans="2:22" ht="15.6" customHeight="1">
@@ -2214,7 +2225,7 @@
         <v>2025</v>
       </c>
       <c r="F7">
-        <v>620.56799999999998</v>
+        <v>617.36522400000001</v>
       </c>
       <c r="I7">
         <v>162.943679</v>
@@ -2247,7 +2258,7 @@
         <v>2035</v>
       </c>
       <c r="V7">
-        <v>823.47192882000002</v>
+        <v>765.72</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2264,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>764.41101588000004</v>
+        <v>724.17600000000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2304,7 +2315,7 @@
         <v>2040</v>
       </c>
       <c r="V8">
-        <v>888.93832013999997</v>
+        <v>812.73599999999999</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="15.6" customHeight="1">
@@ -2321,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>823.47192882000002</v>
+        <v>765.72</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2333,7 +2344,7 @@
         <v>2045</v>
       </c>
       <c r="V9">
-        <v>943.35385914000005</v>
+        <v>861.50016000000005</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15.6" customHeight="1">
@@ -2350,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>888.93832013999997</v>
+        <v>812.73599999999999</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2362,7 +2373,7 @@
         <v>2050</v>
       </c>
       <c r="V10">
-        <v>1000.70314704</v>
+        <v>913.19016959999999</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="15.6" customHeight="1">
@@ -2379,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>943.35385914000005</v>
+        <v>861.50016000000005</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2396,7 +2407,110 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
+        <v>913.19016959999999</v>
+      </c>
+      <c r="R12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22">
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="R14">
+        <v>2025</v>
+      </c>
+      <c r="S14">
+        <v>620.56799999999998</v>
+      </c>
+      <c r="U14">
+        <v>2025</v>
+      </c>
+      <c r="V14">
+        <v>617.36522400000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="R15">
+        <v>2030</v>
+      </c>
+      <c r="S15">
+        <v>764.41101588000004</v>
+      </c>
+      <c r="U15">
+        <v>2030</v>
+      </c>
+      <c r="V15">
+        <v>832.80240000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="R16">
+        <v>2035</v>
+      </c>
+      <c r="S16">
+        <v>823.47192882000002</v>
+      </c>
+      <c r="U16">
+        <v>2035</v>
+      </c>
+      <c r="V16">
+        <v>880.57799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="18:22">
+      <c r="R17">
+        <v>2040</v>
+      </c>
+      <c r="S17">
+        <v>888.93832013999997</v>
+      </c>
+      <c r="U17">
+        <v>2040</v>
+      </c>
+      <c r="V17">
+        <v>934.64639999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="18:22">
+      <c r="R18">
+        <v>2045</v>
+      </c>
+      <c r="S18">
+        <v>943.35385914000005</v>
+      </c>
+      <c r="U18">
+        <v>2045</v>
+      </c>
+      <c r="V18">
+        <v>990.72518400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="18:22">
+      <c r="R19">
+        <v>2050</v>
+      </c>
+      <c r="S19">
         <v>1000.70314704</v>
+      </c>
+      <c r="U19">
+        <v>2050</v>
+      </c>
+      <c r="V19">
+        <v>1050.1686950400001</v>
+      </c>
+    </row>
+    <row r="20" spans="18:22">
+      <c r="V20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2405,12 +2519,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2657,20 +2773,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2695,12 +2812,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD14D1-FE63-4DEB-AEA5-A0B85277314F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BBA0E-C13A-4449-82AF-34121738005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,6 +575,8 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -611,8 +613,6 @@
     <xf numFmtId="14" fontId="6" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hiperłącze 2 4 2" xfId="3" xr:uid="{B26F89E5-914E-409B-9883-8B289A41C657}"/>
@@ -1186,9 +1186,9 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
       <c r="J6" s="24"/>
       <c r="K6" s="22"/>
       <c r="L6" s="13"/>
@@ -1209,9 +1209,9 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
       <c r="J8" s="24"/>
       <c r="K8" s="22"/>
       <c r="L8" s="13"/>
@@ -1260,15 +1260,15 @@
       <c r="A14" s="13"/>
       <c r="B14" s="18"/>
       <c r="C14" s="23"/>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="J14" s="24"/>
       <c r="K14" s="22"/>
       <c r="L14" s="13"/>
@@ -1279,9 +1279,9 @@
       <c r="C15" s="23"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="J15" s="24"/>
       <c r="K15" s="22"/>
       <c r="L15" s="13"/>
@@ -1306,16 +1306,16 @@
       <c r="A18" s="13"/>
       <c r="B18" s="18"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
       <c r="J18" s="24"/>
       <c r="K18" s="22"/>
       <c r="L18" s="13"/>
@@ -1326,10 +1326,10 @@
       <c r="C19" s="23"/>
       <c r="D19" s="28"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="24"/>
       <c r="K19" s="22"/>
       <c r="L19" s="13"/>
@@ -1340,10 +1340,10 @@
       <c r="C20" s="23"/>
       <c r="D20" s="28"/>
       <c r="E20" s="28"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
       <c r="J20" s="24"/>
       <c r="K20" s="22"/>
       <c r="L20" s="13"/>
@@ -1363,10 +1363,10 @@
       <c r="A22" s="13"/>
       <c r="B22" s="18"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="49"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="30">
         <v>45078</v>
       </c>
@@ -1444,10 +1444,10 @@
       <c r="A28" s="13"/>
       <c r="B28" s="18"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="51"/>
       <c r="F28" s="14" t="s">
         <v>16</v>
       </c>
@@ -1486,10 +1486,10 @@
       <c r="A32" s="13"/>
       <c r="B32" s="18"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="49" t="s">
+      <c r="D32" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="49"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="14" t="s">
         <v>16</v>
       </c>
@@ -1660,11 +1660,11 @@
       <c r="A4" s="13"/>
       <c r="B4" s="18"/>
       <c r="C4" s="23"/>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
       <c r="G4" s="24"/>
       <c r="H4" s="22"/>
       <c r="I4" s="13"/>
@@ -1684,11 +1684,11 @@
       <c r="A6" s="13"/>
       <c r="B6" s="18"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
       <c r="G6" s="24"/>
       <c r="H6" s="22"/>
       <c r="I6" s="13"/>
@@ -1710,11 +1710,11 @@
       <c r="A8" s="13"/>
       <c r="B8" s="18"/>
       <c r="C8" s="23"/>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="24"/>
       <c r="H8" s="22"/>
       <c r="I8" s="13"/>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2111,7 +2111,7 @@
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="2:22">
-      <c r="R3" s="62" t="s">
+      <c r="R3" s="50" t="s">
         <v>29</v>
       </c>
       <c r="U3" s="48" t="s">
@@ -2275,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>724.17600000000004</v>
+        <v>832.80240000000003</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2332,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>765.72</v>
+        <v>880.57799999999997</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2361,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>812.73599999999999</v>
+        <v>934.64639999999997</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2390,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>861.50016000000005</v>
+        <v>990.72518400000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2407,9 +2407,9 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>913.19016959999999</v>
-      </c>
-      <c r="R12" s="61" t="s">
+        <v>1050.1686950400001</v>
+      </c>
+      <c r="R12" s="49" t="s">
         <v>30</v>
       </c>
       <c r="U12" s="48" t="s">
@@ -2519,14 +2519,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2773,21 +2771,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2812,9 +2809,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BBA0E-C13A-4449-82AF-34121738005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A0B9A-338D-4382-903B-569AEC642A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="B2:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>832.80240000000003</v>
+        <v>724.17600000000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2332,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>880.57799999999997</v>
+        <v>765.72</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2361,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>934.64639999999997</v>
+        <v>812.73599999999999</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2390,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>990.72518400000001</v>
+        <v>861.50016000000005</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2407,7 +2407,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>1050.1686950400001</v>
+        <v>913.19016959999999</v>
       </c>
       <c r="R12" s="49" t="s">
         <v>30</v>
@@ -2519,12 +2519,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,20 +2773,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2809,12 +2812,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A0B9A-338D-4382-903B-569AEC642A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047A8D2-581B-4F7E-A2DF-B012CBA41202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2275,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>724.17600000000004</v>
+        <v>832.80240000000003</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2332,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>765.72</v>
+        <v>880.57799999999997</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2361,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>812.73599999999999</v>
+        <v>934.64639999999997</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2390,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>861.50016000000005</v>
+        <v>990.72518400000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2407,7 +2407,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>913.19016959999999</v>
+        <v>1050.1686950400001</v>
       </c>
       <c r="R12" s="49" t="s">
         <v>30</v>
@@ -2519,14 +2519,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2773,21 +2771,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2812,9 +2809,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D047A8D2-581B-4F7E-A2DF-B012CBA41202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC754CF-9D72-49FD-90C3-648F117A913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="B2:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>832.80240000000003</v>
+        <v>724.17600000000004</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2332,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>880.57799999999997</v>
+        <v>765.72</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2361,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>934.64639999999997</v>
+        <v>812.73599999999999</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2390,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>990.72518400000001</v>
+        <v>861.50016000000005</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2407,7 +2407,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>1050.1686950400001</v>
+        <v>913.19016959999999</v>
       </c>
       <c r="R12" s="49" t="s">
         <v>30</v>
@@ -2519,12 +2519,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2771,20 +2773,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2809,12 +2812,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
+++ b/SuppXLS/Scen_DEM_ELC_BAZOWY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domkr\Desktop\VEDA\dedyk_ZMIANY\TIMES_zmiany\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC754CF-9D72-49FD-90C3-648F117A913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7447B2F-F62E-4DDD-A63F-DED61394186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2090,7 +2090,7 @@
   <dimension ref="B2:V20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2275,7 +2275,7 @@
         <v>2030</v>
       </c>
       <c r="F8" s="7">
-        <v>724.17600000000004</v>
+        <v>832.80240000000003</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" ref="I8:O8" si="0">ROUND(I7*3.6,6)</f>
@@ -2332,7 +2332,7 @@
         <v>2035</v>
       </c>
       <c r="F9" s="8">
-        <v>765.72</v>
+        <v>880.57799999999997</v>
       </c>
       <c r="R9">
         <v>2045</v>
@@ -2361,7 +2361,7 @@
         <v>2040</v>
       </c>
       <c r="F10" s="7">
-        <v>812.73599999999999</v>
+        <v>934.64639999999997</v>
       </c>
       <c r="R10">
         <v>2050</v>
@@ -2390,7 +2390,7 @@
         <v>2045</v>
       </c>
       <c r="F11" s="8">
-        <v>861.50016000000005</v>
+        <v>990.72518400000001</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15.6" customHeight="1" thickBot="1">
@@ -2407,7 +2407,7 @@
         <v>2050</v>
       </c>
       <c r="F12" s="9">
-        <v>913.19016959999999</v>
+        <v>1050.1686950400001</v>
       </c>
       <c r="R12" s="49" t="s">
         <v>30</v>
@@ -2519,14 +2519,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2773,21 +2771,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8acd6055-54fc-4ce7-b3df-0a09834a0329">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="708d6b01-37ca-4db4-bc7f-9b68f32c58b8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2812,9 +2809,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B9367F8-F5AA-4451-A667-2EC04DC22A98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{640B29F7-23B0-439B-B15D-15B4A129E3FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>